--- a/data/trans_bre/P25_12-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_12-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:N12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>7,66</t>
+          <t>7,63</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>8,93</t>
+          <t>8,79</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>7,13</t>
+          <t>6,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>8,9</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>12,26</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>118,38%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>140,53%</t>
+          <t>13,23</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>103,32%</t>
+          <t>113,03%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>125,15%</t>
+          <t>129,31%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>95,39%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>89,67%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>125,14%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>112,42%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,06; 11,2</t>
+          <t>4,04; 10,78</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>5,77; 12,02</t>
+          <t>5,65; 12,22</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>3,31; 10,23</t>
+          <t>3,56; 10,01</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>8,42; 15,84</t>
+          <t>4,74; 13,01</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>40,43; 226,92</t>
+          <t>8,71; 15,85</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>64,02; 250,1</t>
+          <t>9,26; 17,13</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>34,72; 190,4</t>
+          <t>41,69; 212,56</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>72,2; 192,53</t>
+          <t>54,28; 238,86</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>34,94; 160,75</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>37,41; 162,2</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>71,06; 192,85</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>67,02; 175,82</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>9,83</t>
+          <t>10,18</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>9,78</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>6,59</t>
+          <t>6,83</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>13,28</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>16,2</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>202,64%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>167,28%</t>
+          <t>11,18</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>90,87%</t>
+          <t>205,27%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>332,03%</t>
+          <t>162,36%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>92,64%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>131,03%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>332,01%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>116,01%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>5,76; 13,96</t>
+          <t>6,41; 14,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>6,15; 13,56</t>
+          <t>6,2; 13,67</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,27; 10,63</t>
+          <t>2,3; 11,0</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>10,37; 22,38</t>
+          <t>8,19; 18,91</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>80,9; 435,33</t>
+          <t>10,59; 22,72</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>75,12; 301,77</t>
+          <t>5,09; 18,11</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>12,54; 194,36</t>
+          <t>90,95; 416,62</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>136,11; 701,05</t>
+          <t>81,45; 295,15</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>13,29; 188,76</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>64,33; 232,57</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>146,81; 799,07</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>39,57; 241,0</t>
         </is>
       </c>
     </row>
@@ -820,40 +932,60 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>10,09</t>
+          <t>6,25</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>13,93</t>
+          <t>14,01</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>10,51</t>
+          <t>10,49</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>7,94</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>240,07%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>208,79%</t>
+          <t>—</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>147,62%</t>
+          <t>132,4%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>204,78%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>146,82%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>68,48%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -868,40 +1000,60 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>3,16; 20,58</t>
+          <t>-0,53; 12,85</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>6,86; 21,71</t>
+          <t>6,9; 21,85</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>3,85; 18,33</t>
+          <t>4,07; 19,05</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>-1,41; 18,28</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>28,54; 902,66</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>61,9; 572,31</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>30,82; 452,98</t>
+          <t>-11,7; 602,35</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>59,86; 520,39</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>35,32; 495,79</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-13,41; 243,92</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>8,81</t>
+          <t>8,5</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>9,82</t>
+          <t>9,77</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>7,3</t>
+          <t>7,32</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>13,23</t>
+          <t>10,46</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>158,85%</t>
+          <t>13,22</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>158,7%</t>
+          <t>12,83</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>103,29%</t>
+          <t>146,75%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>153,37%</t>
+          <t>150,44%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>100,07%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>102,38%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>153,36%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>114,0%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,69 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>6,31; 11,46</t>
+          <t>5,84; 10,92</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>7,46; 12,17</t>
+          <t>7,48; 11,97</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>4,73; 9,86</t>
+          <t>4,75; 9,68</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,37; 16,61</t>
+          <t>7,39; 13,43</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>90,72; 257,27</t>
+          <t>10,13; 16,46</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>102,32; 239,02</t>
+          <t>9,66; 16,19</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>51,83; 167,79</t>
+          <t>77,78; 226,12</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>102,1; 225,79</t>
+          <t>97,47; 224,55</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>51,82; 154,06</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>60,47; 152,36</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>97,66; 222,41</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>74,49; 165,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1011,11 +1210,11 @@
   <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/trans_bre/P25_12-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_12-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N12"/>
+  <dimension ref="A1:N16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -650,419 +659,271 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>7,63</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>8,79</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>6,97</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>8,9</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>12,26</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>13,23</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>113,03%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>129,31%</t>
-        </is>
-      </c>
-      <c r="K4" s="2" t="inlineStr">
-        <is>
-          <t>95,39%</t>
-        </is>
-      </c>
-      <c r="L4" s="2" t="inlineStr">
-        <is>
-          <t>89,67%</t>
-        </is>
-      </c>
-      <c r="M4" s="2" t="inlineStr">
-        <is>
-          <t>125,14%</t>
-        </is>
-      </c>
-      <c r="N4" s="2" t="inlineStr">
-        <is>
-          <t>112,42%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>8.214397684766395</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>8.809052913481944</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>6.976271936586715</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>8.938774098947071</v>
+      </c>
+      <c r="G4" s="5" t="n">
+        <v>12.26201082997399</v>
+      </c>
+      <c r="H4" s="5" t="n">
+        <v>13.20404907136227</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>1.27940863045199</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>1.292547197797009</v>
+      </c>
+      <c r="K4" s="6" t="n">
+        <v>0.9527470597153685</v>
+      </c>
+      <c r="L4" s="6" t="n">
+        <v>0.9114904422525985</v>
+      </c>
+      <c r="M4" s="6" t="n">
+        <v>1.251447576438348</v>
+      </c>
+      <c r="N4" s="6" t="n">
+        <v>1.122903957342491</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>4,04; 10,78</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>5,65; 12,22</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>3,56; 10,01</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>4,74; 13,01</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>8,71; 15,85</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>9,26; 17,13</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>41,69; 212,56</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>54,28; 238,86</t>
-        </is>
-      </c>
-      <c r="K5" s="2" t="inlineStr">
-        <is>
-          <t>34,94; 160,75</t>
-        </is>
-      </c>
-      <c r="L5" s="2" t="inlineStr">
-        <is>
-          <t>37,41; 162,2</t>
-        </is>
-      </c>
-      <c r="M5" s="2" t="inlineStr">
-        <is>
-          <t>71,06; 192,85</t>
-        </is>
-      </c>
-      <c r="N5" s="2" t="inlineStr">
-        <is>
-          <t>67,02; 175,82</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>4.471802951415116</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>5.430295316832508</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>3.382389381829025</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>4.806232900434116</v>
+      </c>
+      <c r="G5" s="5" t="n">
+        <v>8.7102638998565</v>
+      </c>
+      <c r="H5" s="5" t="n">
+        <v>9.174183516841028</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>0.4877427144015816</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.5472252020545751</v>
+      </c>
+      <c r="K5" s="6" t="n">
+        <v>0.3353916904168909</v>
+      </c>
+      <c r="L5" s="6" t="n">
+        <v>0.3863418636552865</v>
+      </c>
+      <c r="M5" s="6" t="n">
+        <v>0.7105755472267706</v>
+      </c>
+      <c r="N5" s="6" t="n">
+        <v>0.6653810309462532</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>11.39543704238034</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>12.20508561063548</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>10.05167351102969</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>13.05228960969153</v>
+      </c>
+      <c r="G6" s="5" t="n">
+        <v>15.84613919588843</v>
+      </c>
+      <c r="H6" s="5" t="n">
+        <v>17.08709005763586</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>2.349651950718987</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.394686423749532</v>
+      </c>
+      <c r="K6" s="6" t="n">
+        <v>1.638437637962762</v>
+      </c>
+      <c r="L6" s="6" t="n">
+        <v>1.635754877691971</v>
+      </c>
+      <c r="M6" s="6" t="n">
+        <v>1.928463574479512</v>
+      </c>
+      <c r="N6" s="6" t="n">
+        <v>1.743060337117122</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>10,18</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>9,77</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>6,83</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>13,28</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>16,2</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>11,18</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>205,27%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>162,36%</t>
-        </is>
-      </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>92,64%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>131,03%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>332,01%</t>
-        </is>
-      </c>
-      <c r="N6" s="2" t="inlineStr">
-        <is>
-          <t>116,01%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>6,41; 14,53</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>6,2; 13,67</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>2,3; 11,0</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>8,19; 18,91</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>10,59; 22,72</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>5,09; 18,11</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>90,95; 416,62</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>81,45; 295,15</t>
-        </is>
-      </c>
-      <c r="K7" s="2" t="inlineStr">
-        <is>
-          <t>13,29; 188,76</t>
-        </is>
-      </c>
-      <c r="L7" s="2" t="inlineStr">
-        <is>
-          <t>64,33; 232,57</t>
-        </is>
-      </c>
-      <c r="M7" s="2" t="inlineStr">
-        <is>
-          <t>146,81; 799,07</t>
-        </is>
-      </c>
-      <c r="N7" s="2" t="inlineStr">
-        <is>
-          <t>39,57; 241,0</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>9.761634772310909</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>9.776266576968116</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>6.557575364882248</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>13.56737238838566</v>
+      </c>
+      <c r="G7" s="5" t="n">
+        <v>16.20110011030332</v>
+      </c>
+      <c r="H7" s="5" t="n">
+        <v>11.28339544984977</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>1.935015656283503</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>1.614849542881366</v>
+      </c>
+      <c r="K7" s="6" t="n">
+        <v>0.8819706029120111</v>
+      </c>
+      <c r="L7" s="6" t="n">
+        <v>1.347419239534811</v>
+      </c>
+      <c r="M7" s="6" t="n">
+        <v>3.320139321481275</v>
+      </c>
+      <c r="N7" s="6" t="n">
+        <v>1.173028204983747</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>6,25</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>14,01</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>10,49</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>7,94</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>—</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>132,4%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>204,78%</t>
-        </is>
-      </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>146,82%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>68,48%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
-      </c>
-      <c r="N8" s="2" t="inlineStr">
-        <is>
-          <t>—%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>6.041097624354758</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>6.066041352853169</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>1.837094158464244</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>8.42504500630718</v>
+      </c>
+      <c r="G8" s="5" t="n">
+        <v>10.58899689086581</v>
+      </c>
+      <c r="H8" s="5" t="n">
+        <v>5.189901804626198</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>0.7687469075813114</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>0.785602102194619</v>
+      </c>
+      <c r="K8" s="6" t="n">
+        <v>0.1142118382335306</v>
+      </c>
+      <c r="L8" s="6" t="n">
+        <v>0.6550682077513641</v>
+      </c>
+      <c r="M8" s="6" t="n">
+        <v>1.468067675221317</v>
+      </c>
+      <c r="N8" s="6" t="n">
+        <v>0.4113985695339898</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-0,53; 12,85</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>6,9; 21,85</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>4,07; 19,05</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-1,41; 18,28</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>-11,7; 602,35</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>59,86; 520,39</t>
-        </is>
-      </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>35,32; 495,79</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>-13,41; 243,92</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="N9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>14.12991470886659</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>13.66437831108408</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>10.57996448750548</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>19.27629709507131</v>
+      </c>
+      <c r="G9" s="5" t="n">
+        <v>22.72431430062428</v>
+      </c>
+      <c r="H9" s="5" t="n">
+        <v>18.3004577850168</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>3.890179593634087</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>2.964164420615813</v>
+      </c>
+      <c r="K9" s="6" t="n">
+        <v>1.805956999448461</v>
+      </c>
+      <c r="L9" s="6" t="n">
+        <v>2.372035987695632</v>
+      </c>
+      <c r="M9" s="6" t="n">
+        <v>7.990685529033121</v>
+      </c>
+      <c r="N9" s="6" t="n">
+        <v>2.430074567454286</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -1070,137 +931,245 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>8,5</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>9,77</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>7,32</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>10,46</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>13,22</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>12,83</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>146,75%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>150,44%</t>
-        </is>
-      </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>100,07%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>102,38%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>153,36%</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
-        <is>
-          <t>114,0%</t>
-        </is>
-      </c>
+      <c r="C10" s="5" t="n">
+        <v>8.147051510520273</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>14.14391853792235</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>10.4011357455054</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>8.363239712487976</v>
+      </c>
+      <c r="G10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="inlineStr"/>
+      <c r="I10" s="6" t="n">
+        <v>2.016098960885171</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>2.081597863363924</v>
+      </c>
+      <c r="K10" s="6" t="n">
+        <v>1.464747177469157</v>
+      </c>
+      <c r="L10" s="6" t="n">
+        <v>0.7420039871021914</v>
+      </c>
+      <c r="M10" s="6" t="inlineStr"/>
+      <c r="N10" s="6" t="inlineStr"/>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>5,84; 10,92</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>7,48; 11,97</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>4,75; 9,68</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>7,39; 13,43</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>10,13; 16,46</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>9,66; 16,19</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>77,78; 226,12</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>97,47; 224,55</t>
-        </is>
-      </c>
-      <c r="K11" s="2" t="inlineStr">
-        <is>
-          <t>51,82; 154,06</t>
-        </is>
-      </c>
-      <c r="L11" s="2" t="inlineStr">
-        <is>
-          <t>60,47; 152,36</t>
-        </is>
-      </c>
-      <c r="M11" s="2" t="inlineStr">
-        <is>
-          <t>97,66; 222,41</t>
-        </is>
-      </c>
-      <c r="N11" s="2" t="inlineStr">
-        <is>
-          <t>74,49; 165,43</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>1.80143380850467</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>7.259022072545536</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>3.830243220575622</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.8612814697254395</v>
+      </c>
+      <c r="G11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="inlineStr"/>
+      <c r="I11" s="6" t="n">
+        <v>0.09172374252134897</v>
+      </c>
+      <c r="J11" s="6" t="n">
+        <v>0.6125493945804655</v>
+      </c>
+      <c r="K11" s="6" t="n">
+        <v>0.3158466891715051</v>
+      </c>
+      <c r="L11" s="6" t="n">
+        <v>-0.09407206496463821</v>
+      </c>
+      <c r="M11" s="6" t="inlineStr"/>
+      <c r="N11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>15.92471283052309</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>22.06697713276143</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>18.51595221566582</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>18.72559609473342</v>
+      </c>
+      <c r="G12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="inlineStr"/>
+      <c r="I12" s="6" t="n">
+        <v>8.100709134114807</v>
+      </c>
+      <c r="J12" s="6" t="n">
+        <v>5.201524892815752</v>
+      </c>
+      <c r="K12" s="6" t="n">
+        <v>4.835508348604716</v>
+      </c>
+      <c r="L12" s="6" t="n">
+        <v>2.549562383469349</v>
+      </c>
+      <c r="M12" s="6" t="inlineStr"/>
+      <c r="N12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>8.841975038111185</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>9.794134117388852</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>7.207169169582182</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>10.63701219598961</v>
+      </c>
+      <c r="G13" s="5" t="n">
+        <v>13.22450173705597</v>
+      </c>
+      <c r="H13" s="5" t="n">
+        <v>12.82828474443687</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>1.584206519168738</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>1.504795002078441</v>
+      </c>
+      <c r="K13" s="6" t="n">
+        <v>0.9818650570094719</v>
+      </c>
+      <c r="L13" s="6" t="n">
+        <v>1.053996871844414</v>
+      </c>
+      <c r="M13" s="6" t="n">
+        <v>1.533627632765361</v>
+      </c>
+      <c r="N13" s="6" t="n">
+        <v>1.141287803381142</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>6.023931889985204</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>7.504127521342732</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>4.556227919283918</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>7.570265977995877</v>
+      </c>
+      <c r="G14" s="5" t="n">
+        <v>10.1324124303218</v>
+      </c>
+      <c r="H14" s="5" t="n">
+        <v>9.711401802264026</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>0.8621824366938998</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>0.9519916011077924</v>
+      </c>
+      <c r="K14" s="6" t="n">
+        <v>0.5042473443013773</v>
+      </c>
+      <c r="L14" s="6" t="n">
+        <v>0.6345367869291908</v>
+      </c>
+      <c r="M14" s="6" t="n">
+        <v>0.9765791314682446</v>
+      </c>
+      <c r="N14" s="6" t="n">
+        <v>0.742693692750295</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>11.24760694615236</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>12.04572227767732</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>9.557832817257808</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>13.52158686538735</v>
+      </c>
+      <c r="G15" s="5" t="n">
+        <v>16.46489410056309</v>
+      </c>
+      <c r="H15" s="5" t="n">
+        <v>16.25399447543487</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>2.484617493985212</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>2.211996223090653</v>
+      </c>
+      <c r="K15" s="6" t="n">
+        <v>1.529800778838109</v>
+      </c>
+      <c r="L15" s="6" t="n">
+        <v>1.565885193543835</v>
+      </c>
+      <c r="M15" s="6" t="n">
+        <v>2.224073265024232</v>
+      </c>
+      <c r="N15" s="6" t="n">
+        <v>1.660369418338703</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
@@ -1208,12 +1177,12 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A13:A15"/>
     <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
